--- a/shiitake_list.xlsx
+++ b/shiitake_list.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Myco lab\香菇\香菇發表\IGS_database\github\ShiitakeIGS1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D01719-BBE2-43EA-8939-6F1DC7672508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="香菇採集資料及序列.xlsx - Table1 最終版" sheetId="1" r:id="rId4"/>
+    <sheet name="香菇採集資料及序列.xlsx - Table1 最終版" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qVjMtkZ/8stUd01cfXj/awRJgfr0kmlH+udpDVigRv8="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="736">
   <si>
     <t>Cultivar</t>
   </si>
@@ -35,25 +44,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>Accession</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>1</t>
     </r>
@@ -352,17 +365,19 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>Kamiko_50</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>_gou</t>
     </r>
@@ -370,17 +385,19 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>Kamiko_50</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>_gou</t>
     </r>
@@ -391,25 +408,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>KB2001</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>_</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>gou</t>
     </r>
@@ -417,25 +438,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>KB2001</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>_</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>gou</t>
     </r>
@@ -2322,28 +2347,41 @@
   </si>
   <si>
     <t>LC813626</t>
+  </si>
+  <si>
+    <t>LC819327</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2351,61 +2389,79 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2595,29 +2651,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="F249" sqref="F249"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="29.57"/>
-    <col customWidth="1" min="3" max="3" width="43.29"/>
-    <col customWidth="1" min="4" max="4" width="24.43"/>
-    <col customWidth="1" min="5" max="5" width="40.43"/>
-    <col customWidth="1" min="6" max="8" width="15.86"/>
-    <col customWidth="1" min="9" max="9" width="21.43"/>
-    <col customWidth="1" min="10" max="26" width="8.71"/>
+    <col min="1" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="6" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2646,7 +2704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2673,7 +2731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2698,7 +2756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2723,7 +2781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2748,7 +2806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2773,7 +2831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2798,7 +2856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2823,7 +2881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2844,7 +2902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2865,7 +2923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2888,7 +2946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2909,7 +2967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2930,7 +2988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2951,7 +3009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2974,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2997,7 +3055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3022,7 +3080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -3066,7 +3124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="18.75" customHeight="1">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3089,7 +3147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3112,7 +3170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -3137,7 +3195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="1">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -3162,7 +3220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -3187,7 +3245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -3212,7 +3270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
@@ -3237,7 +3295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -3262,7 +3320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -3287,7 +3345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
@@ -3312,7 +3370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
@@ -3337,7 +3395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -3362,7 +3420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="18.75" customHeight="1">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
@@ -3387,7 +3445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -3412,7 +3470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" ht="18.75" customHeight="1">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -3433,7 +3491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" ht="18.75" customHeight="1">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
@@ -3460,7 +3518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>93</v>
       </c>
@@ -3487,7 +3545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
@@ -3514,7 +3572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="18.75" customHeight="1">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>99</v>
       </c>
@@ -3539,7 +3597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="18.75" customHeight="1">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>101</v>
       </c>
@@ -3564,7 +3622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" ht="18.75" customHeight="1">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
@@ -3587,7 +3645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" ht="18.75" customHeight="1">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>106</v>
       </c>
@@ -3610,7 +3668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -3635,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="18.75" customHeight="1">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>112</v>
       </c>
@@ -3660,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" ht="18.75" customHeight="1">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>114</v>
       </c>
@@ -3689,7 +3747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -3714,7 +3772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" ht="18.75" customHeight="1">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3739,7 +3797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" ht="18.75" customHeight="1">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -3766,7 +3824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" ht="18.75" customHeight="1">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>125</v>
       </c>
@@ -3791,7 +3849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" ht="18.75" customHeight="1">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
@@ -3816,7 +3874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -3841,7 +3899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" ht="18.75" customHeight="1">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -3870,7 +3928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" ht="18.75" customHeight="1">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>136</v>
       </c>
@@ -3895,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" ht="18.75" customHeight="1">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>138</v>
       </c>
@@ -3920,7 +3978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" ht="18.75" customHeight="1">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>141</v>
       </c>
@@ -3945,7 +4003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" ht="18.75" customHeight="1">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
@@ -3970,7 +4028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" ht="18.75" customHeight="1">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>145</v>
       </c>
@@ -3995,7 +4053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" ht="18.75" customHeight="1">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>147</v>
       </c>
@@ -4024,7 +4082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" ht="18.75" customHeight="1">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>151</v>
       </c>
@@ -4053,7 +4111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" ht="18.75" customHeight="1">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>155</v>
       </c>
@@ -4080,7 +4138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" ht="18.75" customHeight="1">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>158</v>
       </c>
@@ -4105,7 +4163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" ht="18.75" customHeight="1">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>160</v>
       </c>
@@ -4130,7 +4188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>162</v>
       </c>
@@ -4155,7 +4213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" ht="18.75" customHeight="1">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>165</v>
       </c>
@@ -4180,7 +4238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" ht="18.75" customHeight="1">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>167</v>
       </c>
@@ -4205,7 +4263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" ht="18.75" customHeight="1">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>169</v>
       </c>
@@ -4230,7 +4288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" ht="18.75" customHeight="1">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>171</v>
       </c>
@@ -4255,7 +4313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" ht="18.75" customHeight="1">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>173</v>
       </c>
@@ -4280,7 +4338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" ht="18.75" customHeight="1">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>175</v>
       </c>
@@ -4305,7 +4363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" ht="18.75" customHeight="1">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>177</v>
       </c>
@@ -4330,7 +4388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" ht="18.75" customHeight="1">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>179</v>
       </c>
@@ -4355,7 +4413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" ht="18.75" customHeight="1">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>181</v>
       </c>
@@ -4384,7 +4442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" ht="18.75" customHeight="1">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>185</v>
       </c>
@@ -4409,7 +4467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" ht="18.75" customHeight="1">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>187</v>
       </c>
@@ -4434,7 +4492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" ht="18.75" customHeight="1">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>189</v>
       </c>
@@ -4459,7 +4517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" ht="18.75" customHeight="1">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>192</v>
       </c>
@@ -4484,7 +4542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" ht="18.75" customHeight="1">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>194</v>
       </c>
@@ -4509,7 +4567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" ht="18.75" customHeight="1">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>196</v>
       </c>
@@ -4536,7 +4594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" ht="18.75" customHeight="1">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>200</v>
       </c>
@@ -4563,7 +4621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" ht="18.75" customHeight="1">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>203</v>
       </c>
@@ -4588,7 +4646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" ht="18.75" customHeight="1">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>205</v>
       </c>
@@ -4613,7 +4671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" ht="18.75" customHeight="1">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>207</v>
       </c>
@@ -4638,7 +4696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" ht="18.75" customHeight="1">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>209</v>
       </c>
@@ -4663,7 +4721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" ht="18.75" customHeight="1">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>211</v>
       </c>
@@ -4690,7 +4748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" ht="18.75" customHeight="1">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>214</v>
       </c>
@@ -4715,7 +4773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" ht="18.75" customHeight="1">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>216</v>
       </c>
@@ -4740,7 +4798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" ht="18.75" customHeight="1">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>218</v>
       </c>
@@ -4765,7 +4823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" ht="18.75" customHeight="1">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>220</v>
       </c>
@@ -4790,7 +4848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" ht="18.75" customHeight="1">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>222</v>
       </c>
@@ -4815,7 +4873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" ht="18.75" customHeight="1">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>224</v>
       </c>
@@ -4840,7 +4898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" ht="18.75" customHeight="1">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>226</v>
       </c>
@@ -4865,7 +4923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" ht="18.75" customHeight="1">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>228</v>
       </c>
@@ -4890,7 +4948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" ht="18.75" customHeight="1">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>230</v>
       </c>
@@ -4915,7 +4973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" ht="18.75" customHeight="1">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>232</v>
       </c>
@@ -4940,7 +4998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" ht="18.75" customHeight="1">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>234</v>
       </c>
@@ -4967,7 +5025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" ht="18.75" customHeight="1">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>237</v>
       </c>
@@ -4996,7 +5054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" ht="18.75" customHeight="1">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>241</v>
       </c>
@@ -5021,7 +5079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" ht="18.75" customHeight="1">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>243</v>
       </c>
@@ -5046,7 +5104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" ht="18.75" customHeight="1">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>245</v>
       </c>
@@ -5071,7 +5129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" ht="18.75" customHeight="1">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>247</v>
       </c>
@@ -5096,7 +5154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" ht="18.75" customHeight="1">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>250</v>
       </c>
@@ -5121,7 +5179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" ht="18.75" customHeight="1">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>252</v>
       </c>
@@ -5146,7 +5204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" ht="18.75" customHeight="1">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>254</v>
       </c>
@@ -5171,7 +5229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" ht="18.75" customHeight="1">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>256</v>
       </c>
@@ -5198,7 +5256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" ht="18.75" customHeight="1">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>259</v>
       </c>
@@ -5223,7 +5281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" ht="18.75" customHeight="1">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -5248,7 +5306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" ht="18.75" customHeight="1">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>264</v>
       </c>
@@ -5273,7 +5331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" ht="18.75" customHeight="1">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>266</v>
       </c>
@@ -5298,7 +5356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" ht="18.75" customHeight="1">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>268</v>
       </c>
@@ -5325,7 +5383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" ht="18.75" customHeight="1">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>271</v>
       </c>
@@ -5350,7 +5408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" ht="18.75" customHeight="1">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>273</v>
       </c>
@@ -5375,7 +5433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" ht="18.75" customHeight="1">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>275</v>
       </c>
@@ -5400,7 +5458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" ht="18.75" customHeight="1">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>277</v>
       </c>
@@ -5425,7 +5483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" ht="18.75" customHeight="1">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>280</v>
       </c>
@@ -5450,7 +5508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" ht="18.75" customHeight="1">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>282</v>
       </c>
@@ -5475,7 +5533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" ht="18.75" customHeight="1">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>28</v>
       </c>
@@ -5496,7 +5554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" ht="18.75" customHeight="1">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>286</v>
       </c>
@@ -5521,7 +5579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" ht="18.75" customHeight="1">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -5546,7 +5604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" ht="18.75" customHeight="1">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -5571,7 +5629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" ht="18.75" customHeight="1">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>293</v>
       </c>
@@ -5596,7 +5654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" ht="18.75" customHeight="1">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>295</v>
       </c>
@@ -5621,7 +5679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" ht="18.75" customHeight="1">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>297</v>
       </c>
@@ -5646,7 +5704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" ht="18.75" customHeight="1">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>299</v>
       </c>
@@ -5671,7 +5729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" ht="18.75" customHeight="1">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>301</v>
       </c>
@@ -5696,7 +5754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" ht="18.75" customHeight="1">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>28</v>
       </c>
@@ -5717,7 +5775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" ht="18.75" customHeight="1">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>28</v>
       </c>
@@ -5738,7 +5796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" ht="18.75" customHeight="1">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>307</v>
       </c>
@@ -5763,7 +5821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" ht="18.75" customHeight="1">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>309</v>
       </c>
@@ -5788,7 +5846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" ht="18.75" customHeight="1">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
@@ -5813,7 +5871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" ht="18.75" customHeight="1">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>313</v>
       </c>
@@ -5838,7 +5896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" ht="18.75" customHeight="1">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>315</v>
       </c>
@@ -5863,7 +5921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" ht="18.75" customHeight="1">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>317</v>
       </c>
@@ -5890,7 +5948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" ht="18.75" customHeight="1">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>320</v>
       </c>
@@ -5915,7 +5973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" ht="18.75" customHeight="1">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>322</v>
       </c>
@@ -5940,7 +5998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" ht="18.75" customHeight="1">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>28</v>
       </c>
@@ -5961,7 +6019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" ht="18.75" customHeight="1">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>326</v>
       </c>
@@ -5982,7 +6040,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="136" ht="18.75" customHeight="1">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>330</v>
       </c>
@@ -6007,7 +6065,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="137" ht="18.75" customHeight="1">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>335</v>
       </c>
@@ -6028,7 +6086,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="138" ht="18.75" customHeight="1">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>338</v>
       </c>
@@ -6051,7 +6109,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="139" ht="18.75" customHeight="1">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>342</v>
       </c>
@@ -6072,7 +6130,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="140" ht="18.75" customHeight="1">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>345</v>
       </c>
@@ -6095,7 +6153,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="141" ht="18.75" customHeight="1">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>349</v>
       </c>
@@ -6116,7 +6174,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142" ht="18.75" customHeight="1">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>352</v>
       </c>
@@ -6137,7 +6195,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" ht="18.75" customHeight="1">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>355</v>
       </c>
@@ -6160,7 +6218,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="144" ht="18.75" customHeight="1">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>359</v>
       </c>
@@ -6183,7 +6241,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="145" ht="18.75" customHeight="1">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>363</v>
       </c>
@@ -6206,7 +6264,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="146" ht="18.75" customHeight="1">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>367</v>
       </c>
@@ -6229,7 +6287,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="147" ht="18.75" customHeight="1">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>353</v>
       </c>
@@ -6250,7 +6308,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="148" ht="18.75" customHeight="1">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>372</v>
       </c>
@@ -6273,7 +6331,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="149" ht="18.75" customHeight="1">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>376</v>
       </c>
@@ -6296,7 +6354,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="150" ht="18.75" customHeight="1">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>380</v>
       </c>
@@ -6321,7 +6379,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="151" ht="18.75" customHeight="1">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>385</v>
       </c>
@@ -6344,7 +6402,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" ht="18.75" customHeight="1">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>389</v>
       </c>
@@ -6367,7 +6425,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="153" ht="18.75" customHeight="1">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>393</v>
       </c>
@@ -6390,7 +6448,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="154" ht="18.75" customHeight="1">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>397</v>
       </c>
@@ -6411,7 +6469,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" ht="18.75" customHeight="1">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>400</v>
       </c>
@@ -6434,7 +6492,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="156" ht="18.75" customHeight="1">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>403</v>
       </c>
@@ -6457,7 +6515,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="157" ht="18.75" customHeight="1">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>406</v>
       </c>
@@ -6480,7 +6538,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="158" ht="18.75" customHeight="1">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>409</v>
       </c>
@@ -6503,7 +6561,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="159" ht="18.75" customHeight="1">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>412</v>
       </c>
@@ -6524,7 +6582,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="160" ht="18.75" customHeight="1">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>414</v>
       </c>
@@ -6547,7 +6605,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" ht="18.75" customHeight="1">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>418</v>
       </c>
@@ -6570,7 +6628,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="162" ht="18.75" customHeight="1">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>422</v>
       </c>
@@ -6593,7 +6651,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="163" ht="18.75" customHeight="1">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>426</v>
       </c>
@@ -6614,7 +6672,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="164" ht="18.75" customHeight="1">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>429</v>
       </c>
@@ -6637,7 +6695,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="165" ht="18.75" customHeight="1">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>433</v>
       </c>
@@ -6660,7 +6718,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" ht="18.75" customHeight="1">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>437</v>
       </c>
@@ -6685,7 +6743,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" ht="18.75" customHeight="1">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>442</v>
       </c>
@@ -6708,7 +6766,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="168" ht="18.75" customHeight="1">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>446</v>
       </c>
@@ -6731,7 +6789,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" ht="18.75" customHeight="1">
+    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>450</v>
       </c>
@@ -6752,7 +6810,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" ht="18.75" customHeight="1">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>453</v>
       </c>
@@ -6773,7 +6831,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="171" ht="18.75" customHeight="1">
+    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>456</v>
       </c>
@@ -6796,7 +6854,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="172" ht="18.75" customHeight="1">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>460</v>
       </c>
@@ -6819,7 +6877,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="173" ht="18.75" customHeight="1">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>465</v>
       </c>
@@ -6842,7 +6900,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" ht="18.75" customHeight="1">
+    <row r="174" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>468</v>
       </c>
@@ -6865,7 +6923,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="175" ht="18.75" customHeight="1">
+    <row r="175" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>471</v>
       </c>
@@ -6888,7 +6946,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="176" ht="18.75" customHeight="1">
+    <row r="176" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>474</v>
       </c>
@@ -6913,7 +6971,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="177" ht="18.75" customHeight="1">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>478</v>
       </c>
@@ -6934,7 +6992,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="178" ht="18.75" customHeight="1">
+    <row r="178" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>480</v>
       </c>
@@ -6955,7 +7013,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="179" ht="18.75" customHeight="1">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>482</v>
       </c>
@@ -6978,7 +7036,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="180" ht="18.75" customHeight="1">
+    <row r="180" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>485</v>
       </c>
@@ -7001,7 +7059,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="181" ht="18.75" customHeight="1">
+    <row r="181" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>488</v>
       </c>
@@ -7024,7 +7082,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" ht="18.75" customHeight="1">
+    <row r="182" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>491</v>
       </c>
@@ -7047,7 +7105,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="183" ht="18.75" customHeight="1">
+    <row r="183" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>494</v>
       </c>
@@ -7070,7 +7128,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="184" ht="18.75" customHeight="1">
+    <row r="184" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>497</v>
       </c>
@@ -7093,7 +7151,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="185" ht="18.75" customHeight="1">
+    <row r="185" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>500</v>
       </c>
@@ -7116,7 +7174,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="186" ht="18.75" customHeight="1">
+    <row r="186" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>503</v>
       </c>
@@ -7137,7 +7195,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="187" ht="18.75" customHeight="1">
+    <row r="187" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>505</v>
       </c>
@@ -7160,7 +7218,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="188" ht="18.75" customHeight="1">
+    <row r="188" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>508</v>
       </c>
@@ -7183,7 +7241,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" ht="18.75" customHeight="1">
+    <row r="189" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>511</v>
       </c>
@@ -7204,7 +7262,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="190" ht="18.75" customHeight="1">
+    <row r="190" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>513</v>
       </c>
@@ -7227,7 +7285,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="191" ht="18.75" customHeight="1">
+    <row r="191" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>516</v>
       </c>
@@ -7248,7 +7306,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="192" ht="18.75" customHeight="1">
+    <row r="192" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>518</v>
       </c>
@@ -7273,7 +7331,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="193" ht="18.75" customHeight="1">
+    <row r="193" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>522</v>
       </c>
@@ -7296,7 +7354,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="194" ht="18.75" customHeight="1">
+    <row r="194" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>525</v>
       </c>
@@ -7319,7 +7377,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="195" ht="18.75" customHeight="1">
+    <row r="195" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>528</v>
       </c>
@@ -7344,7 +7402,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="196" ht="18.75" customHeight="1">
+    <row r="196" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>532</v>
       </c>
@@ -7367,7 +7425,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="197" ht="18.75" customHeight="1">
+    <row r="197" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>535</v>
       </c>
@@ -7390,7 +7448,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="198" ht="18.75" customHeight="1">
+    <row r="198" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>538</v>
       </c>
@@ -7413,7 +7471,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" ht="18.75" customHeight="1">
+    <row r="199" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>541</v>
       </c>
@@ -7434,7 +7492,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="200" ht="18.75" customHeight="1">
+    <row r="200" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>543</v>
       </c>
@@ -7455,7 +7513,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="201" ht="18.75" customHeight="1">
+    <row r="201" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>545</v>
       </c>
@@ -7478,7 +7536,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="202" ht="18.75" customHeight="1">
+    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>548</v>
       </c>
@@ -7501,7 +7559,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="203" ht="18.75" customHeight="1">
+    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>551</v>
       </c>
@@ -7524,7 +7582,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="204" ht="18.75" customHeight="1">
+    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>554</v>
       </c>
@@ -7547,7 +7605,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="205" ht="18.75" customHeight="1">
+    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>557</v>
       </c>
@@ -7570,7 +7628,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="206" ht="18.75" customHeight="1">
+    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>560</v>
       </c>
@@ -7591,7 +7649,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="207" ht="18.75" customHeight="1">
+    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>562</v>
       </c>
@@ -7614,7 +7672,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="208" ht="18.75" customHeight="1">
+    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>565</v>
       </c>
@@ -7637,7 +7695,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="209" ht="18.75" customHeight="1">
+    <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>568</v>
       </c>
@@ -7662,7 +7720,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="210" ht="18.75" customHeight="1">
+    <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>572</v>
       </c>
@@ -7685,7 +7743,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="211" ht="18.75" customHeight="1">
+    <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>575</v>
       </c>
@@ -7708,7 +7766,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="212" ht="18.75" customHeight="1">
+    <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>578</v>
       </c>
@@ -7731,7 +7789,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="213" ht="18.75" customHeight="1">
+    <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>581</v>
       </c>
@@ -7754,7 +7812,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="214" ht="18.75" customHeight="1">
+    <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>584</v>
       </c>
@@ -7775,7 +7833,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="215" ht="18.75" customHeight="1">
+    <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>586</v>
       </c>
@@ -7798,7 +7856,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="216" ht="18.75" customHeight="1">
+    <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>589</v>
       </c>
@@ -7819,7 +7877,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="217" ht="18.75" customHeight="1">
+    <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>591</v>
       </c>
@@ -7842,7 +7900,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="218" ht="18.75" customHeight="1">
+    <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>594</v>
       </c>
@@ -7865,7 +7923,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="219" ht="18.75" customHeight="1">
+    <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>597</v>
       </c>
@@ -7888,9 +7946,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="220" ht="18.75" customHeight="1">
+    <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>600</v>
@@ -7911,9 +7969,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="221" ht="18.75" customHeight="1">
+    <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>604</v>
@@ -7934,9 +7992,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="222" ht="18.75" customHeight="1">
+    <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>607</v>
@@ -7959,9 +8017,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="223" ht="18.75" customHeight="1">
+    <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>611</v>
@@ -7984,9 +8042,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="224" ht="18.75" customHeight="1">
+    <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>615</v>
@@ -8009,9 +8067,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="225" ht="18.75" customHeight="1">
+    <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>618</v>
@@ -8034,9 +8092,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="226" ht="18.75" customHeight="1">
+    <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>621</v>
@@ -8059,9 +8117,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="227" ht="18.75" customHeight="1">
+    <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>624</v>
@@ -8084,9 +8142,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="228" ht="18.75" customHeight="1">
+    <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>627</v>
@@ -8109,9 +8167,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="229" ht="18.75" customHeight="1">
+    <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>630</v>
@@ -8134,9 +8192,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="230" ht="18.75" customHeight="1">
+    <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>633</v>
@@ -8159,9 +8217,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="231" ht="18.75" customHeight="1">
+    <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>637</v>
@@ -8182,9 +8240,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="232" ht="18.75" customHeight="1">
+    <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>578.0</v>
+        <v>578</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>640</v>
@@ -8207,9 +8265,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="233" ht="18.75" customHeight="1">
+    <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>588.0</v>
+        <v>588</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>643</v>
@@ -8232,9 +8290,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="234" ht="18.75" customHeight="1">
+    <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>588.0</v>
+        <v>588</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>646</v>
@@ -8257,9 +8315,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="235" ht="18.75" customHeight="1">
+    <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>588.0</v>
+        <v>588</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>649</v>
@@ -8282,9 +8340,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="236" ht="18.75" customHeight="1">
+    <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>588.0</v>
+        <v>588</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>652</v>
@@ -8307,9 +8365,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="237" ht="18.75" customHeight="1">
+    <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>588.0</v>
+        <v>588</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>655</v>
@@ -8332,9 +8390,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="238" ht="18.75" customHeight="1">
+    <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>588.0</v>
+        <v>588</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>658</v>
@@ -8355,9 +8413,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="239" ht="18.75" customHeight="1">
+    <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>589.0</v>
+        <v>589</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>662</v>
@@ -8380,9 +8438,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="240" ht="18.75" customHeight="1">
+    <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>921.0</v>
+        <v>921</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>665</v>
@@ -8405,9 +8463,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="241" ht="18.75" customHeight="1">
+    <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>921.0</v>
+        <v>921</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>668</v>
@@ -8428,9 +8486,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="242" ht="18.75" customHeight="1">
+    <row r="242" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>921.0</v>
+        <v>921</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>670</v>
@@ -8451,9 +8509,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="243" ht="18.75" customHeight="1">
+    <row r="243" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>922.0</v>
+        <v>922</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>673</v>
@@ -8476,7 +8534,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="244" ht="18.75" customHeight="1">
+    <row r="244" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>676</v>
       </c>
@@ -8501,7 +8559,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="245" ht="18.75" customHeight="1">
+    <row r="245" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>676</v>
       </c>
@@ -8526,7 +8584,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="246" ht="18.75" customHeight="1">
+    <row r="246" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>676</v>
       </c>
@@ -8551,7 +8609,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" ht="18.75" customHeight="1">
+    <row r="247" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>676</v>
       </c>
@@ -8576,7 +8634,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="248" ht="18.75" customHeight="1">
+    <row r="248" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>676</v>
       </c>
@@ -8599,7 +8657,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="249" ht="18.75" customHeight="1">
+    <row r="249" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>692</v>
       </c>
@@ -8624,7 +8682,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="250" ht="18.75" customHeight="1">
+    <row r="250" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>696</v>
       </c>
@@ -8649,7 +8707,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="251" ht="18.75" customHeight="1">
+    <row r="251" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>700</v>
       </c>
@@ -8674,7 +8732,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="252" ht="18.75" customHeight="1">
+    <row r="252" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>28</v>
       </c>
@@ -8691,13 +8749,15 @@
       <c r="F252" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="G252" s="2"/>
+      <c r="G252" s="2" t="s">
+        <v>735</v>
+      </c>
       <c r="H252" s="2"/>
       <c r="I252" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="253" ht="18.75" customHeight="1">
+    <row r="253" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>28</v>
       </c>
@@ -8720,7 +8780,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="254" ht="18.75" customHeight="1">
+    <row r="254" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>28</v>
       </c>
@@ -8745,7 +8805,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="255" ht="18.75" customHeight="1">
+    <row r="255" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>28</v>
       </c>
@@ -8770,7 +8830,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="256" ht="18.75" customHeight="1">
+    <row r="256" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>28</v>
       </c>
@@ -8793,7 +8853,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="257" ht="18.75" customHeight="1">
+    <row r="257" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>719</v>
       </c>
@@ -8818,7 +8878,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="258" ht="18.75" customHeight="1">
+    <row r="258" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>660</v>
       </c>
@@ -8843,7 +8903,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="259" ht="18.75" customHeight="1">
+    <row r="259" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>660</v>
       </c>
@@ -8868,7 +8928,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="260" ht="18.75" customHeight="1">
+    <row r="260" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>660</v>
       </c>
@@ -8893,750 +8953,749 @@
         <v>603</v>
       </c>
     </row>
-    <row r="261" ht="18.75" customHeight="1"/>
-    <row r="262" ht="18.75" customHeight="1"/>
-    <row r="263" ht="18.75" customHeight="1"/>
-    <row r="264" ht="18.75" customHeight="1"/>
-    <row r="265" ht="18.75" customHeight="1"/>
-    <row r="266" ht="18.75" customHeight="1"/>
-    <row r="267" ht="18.75" customHeight="1"/>
-    <row r="268" ht="18.75" customHeight="1"/>
-    <row r="269" ht="18.75" customHeight="1"/>
-    <row r="270" ht="18.75" customHeight="1"/>
-    <row r="271" ht="18.75" customHeight="1"/>
-    <row r="272" ht="18.75" customHeight="1"/>
-    <row r="273" ht="18.75" customHeight="1"/>
-    <row r="274" ht="18.75" customHeight="1"/>
-    <row r="275" ht="18.75" customHeight="1"/>
-    <row r="276" ht="18.75" customHeight="1"/>
-    <row r="277" ht="18.75" customHeight="1"/>
-    <row r="278" ht="18.75" customHeight="1"/>
-    <row r="279" ht="18.75" customHeight="1"/>
-    <row r="280" ht="18.75" customHeight="1"/>
-    <row r="281" ht="18.75" customHeight="1"/>
-    <row r="282" ht="18.75" customHeight="1"/>
-    <row r="283" ht="18.75" customHeight="1"/>
-    <row r="284" ht="18.75" customHeight="1"/>
-    <row r="285" ht="18.75" customHeight="1"/>
-    <row r="286" ht="18.75" customHeight="1"/>
-    <row r="287" ht="18.75" customHeight="1"/>
-    <row r="288" ht="18.75" customHeight="1"/>
-    <row r="289" ht="18.75" customHeight="1"/>
-    <row r="290" ht="18.75" customHeight="1"/>
-    <row r="291" ht="18.75" customHeight="1"/>
-    <row r="292" ht="18.75" customHeight="1"/>
-    <row r="293" ht="18.75" customHeight="1"/>
-    <row r="294" ht="18.75" customHeight="1"/>
-    <row r="295" ht="18.75" customHeight="1"/>
-    <row r="296" ht="18.75" customHeight="1"/>
-    <row r="297" ht="18.75" customHeight="1"/>
-    <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1"/>
-    <row r="300" ht="18.75" customHeight="1"/>
-    <row r="301" ht="18.75" customHeight="1"/>
-    <row r="302" ht="18.75" customHeight="1"/>
-    <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1"/>
-    <row r="305" ht="18.75" customHeight="1"/>
-    <row r="306" ht="18.75" customHeight="1"/>
-    <row r="307" ht="18.75" customHeight="1"/>
-    <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1"/>
-    <row r="310" ht="18.75" customHeight="1"/>
-    <row r="311" ht="18.75" customHeight="1"/>
-    <row r="312" ht="18.75" customHeight="1"/>
-    <row r="313" ht="18.75" customHeight="1"/>
-    <row r="314" ht="18.75" customHeight="1"/>
-    <row r="315" ht="18.75" customHeight="1"/>
-    <row r="316" ht="18.75" customHeight="1"/>
-    <row r="317" ht="18.75" customHeight="1"/>
-    <row r="318" ht="18.75" customHeight="1"/>
-    <row r="319" ht="18.75" customHeight="1"/>
-    <row r="320" ht="18.75" customHeight="1"/>
-    <row r="321" ht="18.75" customHeight="1"/>
-    <row r="322" ht="18.75" customHeight="1"/>
-    <row r="323" ht="18.75" customHeight="1"/>
-    <row r="324" ht="18.75" customHeight="1"/>
-    <row r="325" ht="18.75" customHeight="1"/>
-    <row r="326" ht="18.75" customHeight="1"/>
-    <row r="327" ht="18.75" customHeight="1"/>
-    <row r="328" ht="18.75" customHeight="1"/>
-    <row r="329" ht="18.75" customHeight="1"/>
-    <row r="330" ht="18.75" customHeight="1"/>
-    <row r="331" ht="18.75" customHeight="1"/>
-    <row r="332" ht="18.75" customHeight="1"/>
-    <row r="333" ht="18.75" customHeight="1"/>
-    <row r="334" ht="18.75" customHeight="1"/>
-    <row r="335" ht="18.75" customHeight="1"/>
-    <row r="336" ht="18.75" customHeight="1"/>
-    <row r="337" ht="18.75" customHeight="1"/>
-    <row r="338" ht="18.75" customHeight="1"/>
-    <row r="339" ht="18.75" customHeight="1"/>
-    <row r="340" ht="18.75" customHeight="1"/>
-    <row r="341" ht="18.75" customHeight="1"/>
-    <row r="342" ht="18.75" customHeight="1"/>
-    <row r="343" ht="18.75" customHeight="1"/>
-    <row r="344" ht="18.75" customHeight="1"/>
-    <row r="345" ht="18.75" customHeight="1"/>
-    <row r="346" ht="18.75" customHeight="1"/>
-    <row r="347" ht="18.75" customHeight="1"/>
-    <row r="348" ht="18.75" customHeight="1"/>
-    <row r="349" ht="18.75" customHeight="1"/>
-    <row r="350" ht="18.75" customHeight="1"/>
-    <row r="351" ht="18.75" customHeight="1"/>
-    <row r="352" ht="18.75" customHeight="1"/>
-    <row r="353" ht="18.75" customHeight="1"/>
-    <row r="354" ht="18.75" customHeight="1"/>
-    <row r="355" ht="18.75" customHeight="1"/>
-    <row r="356" ht="18.75" customHeight="1"/>
-    <row r="357" ht="18.75" customHeight="1"/>
-    <row r="358" ht="18.75" customHeight="1"/>
-    <row r="359" ht="18.75" customHeight="1"/>
-    <row r="360" ht="18.75" customHeight="1"/>
-    <row r="361" ht="18.75" customHeight="1"/>
-    <row r="362" ht="18.75" customHeight="1"/>
-    <row r="363" ht="18.75" customHeight="1"/>
-    <row r="364" ht="18.75" customHeight="1"/>
-    <row r="365" ht="18.75" customHeight="1"/>
-    <row r="366" ht="18.75" customHeight="1"/>
-    <row r="367" ht="18.75" customHeight="1"/>
-    <row r="368" ht="18.75" customHeight="1"/>
-    <row r="369" ht="18.75" customHeight="1"/>
-    <row r="370" ht="18.75" customHeight="1"/>
-    <row r="371" ht="18.75" customHeight="1"/>
-    <row r="372" ht="18.75" customHeight="1"/>
-    <row r="373" ht="18.75" customHeight="1"/>
-    <row r="374" ht="18.75" customHeight="1"/>
-    <row r="375" ht="18.75" customHeight="1"/>
-    <row r="376" ht="18.75" customHeight="1"/>
-    <row r="377" ht="18.75" customHeight="1"/>
-    <row r="378" ht="18.75" customHeight="1"/>
-    <row r="379" ht="18.75" customHeight="1"/>
-    <row r="380" ht="18.75" customHeight="1"/>
-    <row r="381" ht="18.75" customHeight="1"/>
-    <row r="382" ht="18.75" customHeight="1"/>
-    <row r="383" ht="18.75" customHeight="1"/>
-    <row r="384" ht="18.75" customHeight="1"/>
-    <row r="385" ht="18.75" customHeight="1"/>
-    <row r="386" ht="18.75" customHeight="1"/>
-    <row r="387" ht="18.75" customHeight="1"/>
-    <row r="388" ht="18.75" customHeight="1"/>
-    <row r="389" ht="18.75" customHeight="1"/>
-    <row r="390" ht="18.75" customHeight="1"/>
-    <row r="391" ht="18.75" customHeight="1"/>
-    <row r="392" ht="18.75" customHeight="1"/>
-    <row r="393" ht="18.75" customHeight="1"/>
-    <row r="394" ht="18.75" customHeight="1"/>
-    <row r="395" ht="18.75" customHeight="1"/>
-    <row r="396" ht="18.75" customHeight="1"/>
-    <row r="397" ht="18.75" customHeight="1"/>
-    <row r="398" ht="18.75" customHeight="1"/>
-    <row r="399" ht="18.75" customHeight="1"/>
-    <row r="400" ht="18.75" customHeight="1"/>
-    <row r="401" ht="18.75" customHeight="1"/>
-    <row r="402" ht="18.75" customHeight="1"/>
-    <row r="403" ht="18.75" customHeight="1"/>
-    <row r="404" ht="18.75" customHeight="1"/>
-    <row r="405" ht="18.75" customHeight="1"/>
-    <row r="406" ht="18.75" customHeight="1"/>
-    <row r="407" ht="18.75" customHeight="1"/>
-    <row r="408" ht="18.75" customHeight="1"/>
-    <row r="409" ht="18.75" customHeight="1"/>
-    <row r="410" ht="18.75" customHeight="1"/>
-    <row r="411" ht="18.75" customHeight="1"/>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
-    <row r="416" ht="18.75" customHeight="1"/>
-    <row r="417" ht="18.75" customHeight="1"/>
-    <row r="418" ht="18.75" customHeight="1"/>
-    <row r="419" ht="18.75" customHeight="1"/>
-    <row r="420" ht="18.75" customHeight="1"/>
-    <row r="421" ht="18.75" customHeight="1"/>
-    <row r="422" ht="18.75" customHeight="1"/>
-    <row r="423" ht="18.75" customHeight="1"/>
-    <row r="424" ht="18.75" customHeight="1"/>
-    <row r="425" ht="18.75" customHeight="1"/>
-    <row r="426" ht="18.75" customHeight="1"/>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1"/>
-    <row r="430" ht="18.75" customHeight="1"/>
-    <row r="431" ht="18.75" customHeight="1"/>
-    <row r="432" ht="18.75" customHeight="1"/>
-    <row r="433" ht="18.75" customHeight="1"/>
-    <row r="434" ht="18.75" customHeight="1"/>
-    <row r="435" ht="18.75" customHeight="1"/>
-    <row r="436" ht="18.75" customHeight="1"/>
-    <row r="437" ht="18.75" customHeight="1"/>
-    <row r="438" ht="18.75" customHeight="1"/>
-    <row r="439" ht="18.75" customHeight="1"/>
-    <row r="440" ht="18.75" customHeight="1"/>
-    <row r="441" ht="18.75" customHeight="1"/>
-    <row r="442" ht="18.75" customHeight="1"/>
-    <row r="443" ht="18.75" customHeight="1"/>
-    <row r="444" ht="18.75" customHeight="1"/>
-    <row r="445" ht="18.75" customHeight="1"/>
-    <row r="446" ht="18.75" customHeight="1"/>
-    <row r="447" ht="18.75" customHeight="1"/>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1"/>
-    <row r="450" ht="18.75" customHeight="1"/>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
-    <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
-    <row r="513" ht="18.75" customHeight="1"/>
-    <row r="514" ht="18.75" customHeight="1"/>
-    <row r="515" ht="18.75" customHeight="1"/>
-    <row r="516" ht="18.75" customHeight="1"/>
-    <row r="517" ht="18.75" customHeight="1"/>
-    <row r="518" ht="18.75" customHeight="1"/>
-    <row r="519" ht="18.75" customHeight="1"/>
-    <row r="520" ht="18.75" customHeight="1"/>
-    <row r="521" ht="18.75" customHeight="1"/>
-    <row r="522" ht="18.75" customHeight="1"/>
-    <row r="523" ht="18.75" customHeight="1"/>
-    <row r="524" ht="18.75" customHeight="1"/>
-    <row r="525" ht="18.75" customHeight="1"/>
-    <row r="526" ht="18.75" customHeight="1"/>
-    <row r="527" ht="18.75" customHeight="1"/>
-    <row r="528" ht="18.75" customHeight="1"/>
-    <row r="529" ht="18.75" customHeight="1"/>
-    <row r="530" ht="18.75" customHeight="1"/>
-    <row r="531" ht="18.75" customHeight="1"/>
-    <row r="532" ht="18.75" customHeight="1"/>
-    <row r="533" ht="18.75" customHeight="1"/>
-    <row r="534" ht="18.75" customHeight="1"/>
-    <row r="535" ht="18.75" customHeight="1"/>
-    <row r="536" ht="18.75" customHeight="1"/>
-    <row r="537" ht="18.75" customHeight="1"/>
-    <row r="538" ht="18.75" customHeight="1"/>
-    <row r="539" ht="18.75" customHeight="1"/>
-    <row r="540" ht="18.75" customHeight="1"/>
-    <row r="541" ht="18.75" customHeight="1"/>
-    <row r="542" ht="18.75" customHeight="1"/>
-    <row r="543" ht="18.75" customHeight="1"/>
-    <row r="544" ht="18.75" customHeight="1"/>
-    <row r="545" ht="18.75" customHeight="1"/>
-    <row r="546" ht="18.75" customHeight="1"/>
-    <row r="547" ht="18.75" customHeight="1"/>
-    <row r="548" ht="18.75" customHeight="1"/>
-    <row r="549" ht="18.75" customHeight="1"/>
-    <row r="550" ht="18.75" customHeight="1"/>
-    <row r="551" ht="18.75" customHeight="1"/>
-    <row r="552" ht="18.75" customHeight="1"/>
-    <row r="553" ht="18.75" customHeight="1"/>
-    <row r="554" ht="18.75" customHeight="1"/>
-    <row r="555" ht="18.75" customHeight="1"/>
-    <row r="556" ht="18.75" customHeight="1"/>
-    <row r="557" ht="18.75" customHeight="1"/>
-    <row r="558" ht="18.75" customHeight="1"/>
-    <row r="559" ht="18.75" customHeight="1"/>
-    <row r="560" ht="18.75" customHeight="1"/>
-    <row r="561" ht="18.75" customHeight="1"/>
-    <row r="562" ht="18.75" customHeight="1"/>
-    <row r="563" ht="18.75" customHeight="1"/>
-    <row r="564" ht="18.75" customHeight="1"/>
-    <row r="565" ht="18.75" customHeight="1"/>
-    <row r="566" ht="18.75" customHeight="1"/>
-    <row r="567" ht="18.75" customHeight="1"/>
-    <row r="568" ht="18.75" customHeight="1"/>
-    <row r="569" ht="18.75" customHeight="1"/>
-    <row r="570" ht="18.75" customHeight="1"/>
-    <row r="571" ht="18.75" customHeight="1"/>
-    <row r="572" ht="18.75" customHeight="1"/>
-    <row r="573" ht="18.75" customHeight="1"/>
-    <row r="574" ht="18.75" customHeight="1"/>
-    <row r="575" ht="18.75" customHeight="1"/>
-    <row r="576" ht="18.75" customHeight="1"/>
-    <row r="577" ht="18.75" customHeight="1"/>
-    <row r="578" ht="18.75" customHeight="1"/>
-    <row r="579" ht="18.75" customHeight="1"/>
-    <row r="580" ht="18.75" customHeight="1"/>
-    <row r="581" ht="18.75" customHeight="1"/>
-    <row r="582" ht="18.75" customHeight="1"/>
-    <row r="583" ht="18.75" customHeight="1"/>
-    <row r="584" ht="18.75" customHeight="1"/>
-    <row r="585" ht="18.75" customHeight="1"/>
-    <row r="586" ht="18.75" customHeight="1"/>
-    <row r="587" ht="18.75" customHeight="1"/>
-    <row r="588" ht="18.75" customHeight="1"/>
-    <row r="589" ht="18.75" customHeight="1"/>
-    <row r="590" ht="18.75" customHeight="1"/>
-    <row r="591" ht="18.75" customHeight="1"/>
-    <row r="592" ht="18.75" customHeight="1"/>
-    <row r="593" ht="18.75" customHeight="1"/>
-    <row r="594" ht="18.75" customHeight="1"/>
-    <row r="595" ht="18.75" customHeight="1"/>
-    <row r="596" ht="18.75" customHeight="1"/>
-    <row r="597" ht="18.75" customHeight="1"/>
-    <row r="598" ht="18.75" customHeight="1"/>
-    <row r="599" ht="18.75" customHeight="1"/>
-    <row r="600" ht="18.75" customHeight="1"/>
-    <row r="601" ht="18.75" customHeight="1"/>
-    <row r="602" ht="18.75" customHeight="1"/>
-    <row r="603" ht="18.75" customHeight="1"/>
-    <row r="604" ht="18.75" customHeight="1"/>
-    <row r="605" ht="18.75" customHeight="1"/>
-    <row r="606" ht="18.75" customHeight="1"/>
-    <row r="607" ht="18.75" customHeight="1"/>
-    <row r="608" ht="18.75" customHeight="1"/>
-    <row r="609" ht="18.75" customHeight="1"/>
-    <row r="610" ht="18.75" customHeight="1"/>
-    <row r="611" ht="18.75" customHeight="1"/>
-    <row r="612" ht="18.75" customHeight="1"/>
-    <row r="613" ht="18.75" customHeight="1"/>
-    <row r="614" ht="18.75" customHeight="1"/>
-    <row r="615" ht="18.75" customHeight="1"/>
-    <row r="616" ht="18.75" customHeight="1"/>
-    <row r="617" ht="18.75" customHeight="1"/>
-    <row r="618" ht="18.75" customHeight="1"/>
-    <row r="619" ht="18.75" customHeight="1"/>
-    <row r="620" ht="18.75" customHeight="1"/>
-    <row r="621" ht="18.75" customHeight="1"/>
-    <row r="622" ht="18.75" customHeight="1"/>
-    <row r="623" ht="18.75" customHeight="1"/>
-    <row r="624" ht="18.75" customHeight="1"/>
-    <row r="625" ht="18.75" customHeight="1"/>
-    <row r="626" ht="18.75" customHeight="1"/>
-    <row r="627" ht="18.75" customHeight="1"/>
-    <row r="628" ht="18.75" customHeight="1"/>
-    <row r="629" ht="18.75" customHeight="1"/>
-    <row r="630" ht="18.75" customHeight="1"/>
-    <row r="631" ht="18.75" customHeight="1"/>
-    <row r="632" ht="18.75" customHeight="1"/>
-    <row r="633" ht="18.75" customHeight="1"/>
-    <row r="634" ht="18.75" customHeight="1"/>
-    <row r="635" ht="18.75" customHeight="1"/>
-    <row r="636" ht="18.75" customHeight="1"/>
-    <row r="637" ht="18.75" customHeight="1"/>
-    <row r="638" ht="18.75" customHeight="1"/>
-    <row r="639" ht="18.75" customHeight="1"/>
-    <row r="640" ht="18.75" customHeight="1"/>
-    <row r="641" ht="18.75" customHeight="1"/>
-    <row r="642" ht="18.75" customHeight="1"/>
-    <row r="643" ht="18.75" customHeight="1"/>
-    <row r="644" ht="18.75" customHeight="1"/>
-    <row r="645" ht="18.75" customHeight="1"/>
-    <row r="646" ht="18.75" customHeight="1"/>
-    <row r="647" ht="18.75" customHeight="1"/>
-    <row r="648" ht="18.75" customHeight="1"/>
-    <row r="649" ht="18.75" customHeight="1"/>
-    <row r="650" ht="18.75" customHeight="1"/>
-    <row r="651" ht="18.75" customHeight="1"/>
-    <row r="652" ht="18.75" customHeight="1"/>
-    <row r="653" ht="18.75" customHeight="1"/>
-    <row r="654" ht="18.75" customHeight="1"/>
-    <row r="655" ht="18.75" customHeight="1"/>
-    <row r="656" ht="18.75" customHeight="1"/>
-    <row r="657" ht="18.75" customHeight="1"/>
-    <row r="658" ht="18.75" customHeight="1"/>
-    <row r="659" ht="18.75" customHeight="1"/>
-    <row r="660" ht="18.75" customHeight="1"/>
-    <row r="661" ht="18.75" customHeight="1"/>
-    <row r="662" ht="18.75" customHeight="1"/>
-    <row r="663" ht="18.75" customHeight="1"/>
-    <row r="664" ht="18.75" customHeight="1"/>
-    <row r="665" ht="18.75" customHeight="1"/>
-    <row r="666" ht="18.75" customHeight="1"/>
-    <row r="667" ht="18.75" customHeight="1"/>
-    <row r="668" ht="18.75" customHeight="1"/>
-    <row r="669" ht="18.75" customHeight="1"/>
-    <row r="670" ht="18.75" customHeight="1"/>
-    <row r="671" ht="18.75" customHeight="1"/>
-    <row r="672" ht="18.75" customHeight="1"/>
-    <row r="673" ht="18.75" customHeight="1"/>
-    <row r="674" ht="18.75" customHeight="1"/>
-    <row r="675" ht="18.75" customHeight="1"/>
-    <row r="676" ht="18.75" customHeight="1"/>
-    <row r="677" ht="18.75" customHeight="1"/>
-    <row r="678" ht="18.75" customHeight="1"/>
-    <row r="679" ht="18.75" customHeight="1"/>
-    <row r="680" ht="18.75" customHeight="1"/>
-    <row r="681" ht="18.75" customHeight="1"/>
-    <row r="682" ht="18.75" customHeight="1"/>
-    <row r="683" ht="18.75" customHeight="1"/>
-    <row r="684" ht="18.75" customHeight="1"/>
-    <row r="685" ht="18.75" customHeight="1"/>
-    <row r="686" ht="18.75" customHeight="1"/>
-    <row r="687" ht="18.75" customHeight="1"/>
-    <row r="688" ht="18.75" customHeight="1"/>
-    <row r="689" ht="18.75" customHeight="1"/>
-    <row r="690" ht="18.75" customHeight="1"/>
-    <row r="691" ht="18.75" customHeight="1"/>
-    <row r="692" ht="18.75" customHeight="1"/>
-    <row r="693" ht="18.75" customHeight="1"/>
-    <row r="694" ht="18.75" customHeight="1"/>
-    <row r="695" ht="18.75" customHeight="1"/>
-    <row r="696" ht="18.75" customHeight="1"/>
-    <row r="697" ht="18.75" customHeight="1"/>
-    <row r="698" ht="18.75" customHeight="1"/>
-    <row r="699" ht="18.75" customHeight="1"/>
-    <row r="700" ht="18.75" customHeight="1"/>
-    <row r="701" ht="18.75" customHeight="1"/>
-    <row r="702" ht="18.75" customHeight="1"/>
-    <row r="703" ht="18.75" customHeight="1"/>
-    <row r="704" ht="18.75" customHeight="1"/>
-    <row r="705" ht="18.75" customHeight="1"/>
-    <row r="706" ht="18.75" customHeight="1"/>
-    <row r="707" ht="18.75" customHeight="1"/>
-    <row r="708" ht="18.75" customHeight="1"/>
-    <row r="709" ht="18.75" customHeight="1"/>
-    <row r="710" ht="18.75" customHeight="1"/>
-    <row r="711" ht="18.75" customHeight="1"/>
-    <row r="712" ht="18.75" customHeight="1"/>
-    <row r="713" ht="18.75" customHeight="1"/>
-    <row r="714" ht="18.75" customHeight="1"/>
-    <row r="715" ht="18.75" customHeight="1"/>
-    <row r="716" ht="18.75" customHeight="1"/>
-    <row r="717" ht="18.75" customHeight="1"/>
-    <row r="718" ht="18.75" customHeight="1"/>
-    <row r="719" ht="18.75" customHeight="1"/>
-    <row r="720" ht="18.75" customHeight="1"/>
-    <row r="721" ht="18.75" customHeight="1"/>
-    <row r="722" ht="18.75" customHeight="1"/>
-    <row r="723" ht="18.75" customHeight="1"/>
-    <row r="724" ht="18.75" customHeight="1"/>
-    <row r="725" ht="18.75" customHeight="1"/>
-    <row r="726" ht="18.75" customHeight="1"/>
-    <row r="727" ht="18.75" customHeight="1"/>
-    <row r="728" ht="18.75" customHeight="1"/>
-    <row r="729" ht="18.75" customHeight="1"/>
-    <row r="730" ht="18.75" customHeight="1"/>
-    <row r="731" ht="18.75" customHeight="1"/>
-    <row r="732" ht="18.75" customHeight="1"/>
-    <row r="733" ht="18.75" customHeight="1"/>
-    <row r="734" ht="18.75" customHeight="1"/>
-    <row r="735" ht="18.75" customHeight="1"/>
-    <row r="736" ht="18.75" customHeight="1"/>
-    <row r="737" ht="18.75" customHeight="1"/>
-    <row r="738" ht="18.75" customHeight="1"/>
-    <row r="739" ht="18.75" customHeight="1"/>
-    <row r="740" ht="18.75" customHeight="1"/>
-    <row r="741" ht="18.75" customHeight="1"/>
-    <row r="742" ht="18.75" customHeight="1"/>
-    <row r="743" ht="18.75" customHeight="1"/>
-    <row r="744" ht="18.75" customHeight="1"/>
-    <row r="745" ht="18.75" customHeight="1"/>
-    <row r="746" ht="18.75" customHeight="1"/>
-    <row r="747" ht="18.75" customHeight="1"/>
-    <row r="748" ht="18.75" customHeight="1"/>
-    <row r="749" ht="18.75" customHeight="1"/>
-    <row r="750" ht="18.75" customHeight="1"/>
-    <row r="751" ht="18.75" customHeight="1"/>
-    <row r="752" ht="18.75" customHeight="1"/>
-    <row r="753" ht="18.75" customHeight="1"/>
-    <row r="754" ht="18.75" customHeight="1"/>
-    <row r="755" ht="18.75" customHeight="1"/>
-    <row r="756" ht="18.75" customHeight="1"/>
-    <row r="757" ht="18.75" customHeight="1"/>
-    <row r="758" ht="18.75" customHeight="1"/>
-    <row r="759" ht="18.75" customHeight="1"/>
-    <row r="760" ht="18.75" customHeight="1"/>
-    <row r="761" ht="18.75" customHeight="1"/>
-    <row r="762" ht="18.75" customHeight="1"/>
-    <row r="763" ht="18.75" customHeight="1"/>
-    <row r="764" ht="18.75" customHeight="1"/>
-    <row r="765" ht="18.75" customHeight="1"/>
-    <row r="766" ht="18.75" customHeight="1"/>
-    <row r="767" ht="18.75" customHeight="1"/>
-    <row r="768" ht="18.75" customHeight="1"/>
-    <row r="769" ht="18.75" customHeight="1"/>
-    <row r="770" ht="18.75" customHeight="1"/>
-    <row r="771" ht="18.75" customHeight="1"/>
-    <row r="772" ht="18.75" customHeight="1"/>
-    <row r="773" ht="18.75" customHeight="1"/>
-    <row r="774" ht="18.75" customHeight="1"/>
-    <row r="775" ht="18.75" customHeight="1"/>
-    <row r="776" ht="18.75" customHeight="1"/>
-    <row r="777" ht="18.75" customHeight="1"/>
-    <row r="778" ht="18.75" customHeight="1"/>
-    <row r="779" ht="18.75" customHeight="1"/>
-    <row r="780" ht="18.75" customHeight="1"/>
-    <row r="781" ht="18.75" customHeight="1"/>
-    <row r="782" ht="18.75" customHeight="1"/>
-    <row r="783" ht="18.75" customHeight="1"/>
-    <row r="784" ht="18.75" customHeight="1"/>
-    <row r="785" ht="18.75" customHeight="1"/>
-    <row r="786" ht="18.75" customHeight="1"/>
-    <row r="787" ht="18.75" customHeight="1"/>
-    <row r="788" ht="18.75" customHeight="1"/>
-    <row r="789" ht="18.75" customHeight="1"/>
-    <row r="790" ht="18.75" customHeight="1"/>
-    <row r="791" ht="18.75" customHeight="1"/>
-    <row r="792" ht="18.75" customHeight="1"/>
-    <row r="793" ht="18.75" customHeight="1"/>
-    <row r="794" ht="18.75" customHeight="1"/>
-    <row r="795" ht="18.75" customHeight="1"/>
-    <row r="796" ht="18.75" customHeight="1"/>
-    <row r="797" ht="18.75" customHeight="1"/>
-    <row r="798" ht="18.75" customHeight="1"/>
-    <row r="799" ht="18.75" customHeight="1"/>
-    <row r="800" ht="18.75" customHeight="1"/>
-    <row r="801" ht="18.75" customHeight="1"/>
-    <row r="802" ht="18.75" customHeight="1"/>
-    <row r="803" ht="18.75" customHeight="1"/>
-    <row r="804" ht="18.75" customHeight="1"/>
-    <row r="805" ht="18.75" customHeight="1"/>
-    <row r="806" ht="18.75" customHeight="1"/>
-    <row r="807" ht="18.75" customHeight="1"/>
-    <row r="808" ht="18.75" customHeight="1"/>
-    <row r="809" ht="18.75" customHeight="1"/>
-    <row r="810" ht="18.75" customHeight="1"/>
-    <row r="811" ht="18.75" customHeight="1"/>
-    <row r="812" ht="18.75" customHeight="1"/>
-    <row r="813" ht="18.75" customHeight="1"/>
-    <row r="814" ht="18.75" customHeight="1"/>
-    <row r="815" ht="18.75" customHeight="1"/>
-    <row r="816" ht="18.75" customHeight="1"/>
-    <row r="817" ht="18.75" customHeight="1"/>
-    <row r="818" ht="18.75" customHeight="1"/>
-    <row r="819" ht="18.75" customHeight="1"/>
-    <row r="820" ht="18.75" customHeight="1"/>
-    <row r="821" ht="18.75" customHeight="1"/>
-    <row r="822" ht="18.75" customHeight="1"/>
-    <row r="823" ht="18.75" customHeight="1"/>
-    <row r="824" ht="18.75" customHeight="1"/>
-    <row r="825" ht="18.75" customHeight="1"/>
-    <row r="826" ht="18.75" customHeight="1"/>
-    <row r="827" ht="18.75" customHeight="1"/>
-    <row r="828" ht="18.75" customHeight="1"/>
-    <row r="829" ht="18.75" customHeight="1"/>
-    <row r="830" ht="18.75" customHeight="1"/>
-    <row r="831" ht="18.75" customHeight="1"/>
-    <row r="832" ht="18.75" customHeight="1"/>
-    <row r="833" ht="18.75" customHeight="1"/>
-    <row r="834" ht="18.75" customHeight="1"/>
-    <row r="835" ht="18.75" customHeight="1"/>
-    <row r="836" ht="18.75" customHeight="1"/>
-    <row r="837" ht="18.75" customHeight="1"/>
-    <row r="838" ht="18.75" customHeight="1"/>
-    <row r="839" ht="18.75" customHeight="1"/>
-    <row r="840" ht="18.75" customHeight="1"/>
-    <row r="841" ht="18.75" customHeight="1"/>
-    <row r="842" ht="18.75" customHeight="1"/>
-    <row r="843" ht="18.75" customHeight="1"/>
-    <row r="844" ht="18.75" customHeight="1"/>
-    <row r="845" ht="18.75" customHeight="1"/>
-    <row r="846" ht="18.75" customHeight="1"/>
-    <row r="847" ht="18.75" customHeight="1"/>
-    <row r="848" ht="18.75" customHeight="1"/>
-    <row r="849" ht="18.75" customHeight="1"/>
-    <row r="850" ht="18.75" customHeight="1"/>
-    <row r="851" ht="18.75" customHeight="1"/>
-    <row r="852" ht="18.75" customHeight="1"/>
-    <row r="853" ht="18.75" customHeight="1"/>
-    <row r="854" ht="18.75" customHeight="1"/>
-    <row r="855" ht="18.75" customHeight="1"/>
-    <row r="856" ht="18.75" customHeight="1"/>
-    <row r="857" ht="18.75" customHeight="1"/>
-    <row r="858" ht="18.75" customHeight="1"/>
-    <row r="859" ht="18.75" customHeight="1"/>
-    <row r="860" ht="18.75" customHeight="1"/>
-    <row r="861" ht="18.75" customHeight="1"/>
-    <row r="862" ht="18.75" customHeight="1"/>
-    <row r="863" ht="18.75" customHeight="1"/>
-    <row r="864" ht="18.75" customHeight="1"/>
-    <row r="865" ht="18.75" customHeight="1"/>
-    <row r="866" ht="18.75" customHeight="1"/>
-    <row r="867" ht="18.75" customHeight="1"/>
-    <row r="868" ht="18.75" customHeight="1"/>
-    <row r="869" ht="18.75" customHeight="1"/>
-    <row r="870" ht="18.75" customHeight="1"/>
-    <row r="871" ht="18.75" customHeight="1"/>
-    <row r="872" ht="18.75" customHeight="1"/>
-    <row r="873" ht="18.75" customHeight="1"/>
-    <row r="874" ht="18.75" customHeight="1"/>
-    <row r="875" ht="18.75" customHeight="1"/>
-    <row r="876" ht="18.75" customHeight="1"/>
-    <row r="877" ht="18.75" customHeight="1"/>
-    <row r="878" ht="18.75" customHeight="1"/>
-    <row r="879" ht="18.75" customHeight="1"/>
-    <row r="880" ht="18.75" customHeight="1"/>
-    <row r="881" ht="18.75" customHeight="1"/>
-    <row r="882" ht="18.75" customHeight="1"/>
-    <row r="883" ht="18.75" customHeight="1"/>
-    <row r="884" ht="18.75" customHeight="1"/>
-    <row r="885" ht="18.75" customHeight="1"/>
-    <row r="886" ht="18.75" customHeight="1"/>
-    <row r="887" ht="18.75" customHeight="1"/>
-    <row r="888" ht="18.75" customHeight="1"/>
-    <row r="889" ht="18.75" customHeight="1"/>
-    <row r="890" ht="18.75" customHeight="1"/>
-    <row r="891" ht="18.75" customHeight="1"/>
-    <row r="892" ht="18.75" customHeight="1"/>
-    <row r="893" ht="18.75" customHeight="1"/>
-    <row r="894" ht="18.75" customHeight="1"/>
-    <row r="895" ht="18.75" customHeight="1"/>
-    <row r="896" ht="18.75" customHeight="1"/>
-    <row r="897" ht="18.75" customHeight="1"/>
-    <row r="898" ht="18.75" customHeight="1"/>
-    <row r="899" ht="18.75" customHeight="1"/>
-    <row r="900" ht="18.75" customHeight="1"/>
-    <row r="901" ht="18.75" customHeight="1"/>
-    <row r="902" ht="18.75" customHeight="1"/>
-    <row r="903" ht="18.75" customHeight="1"/>
-    <row r="904" ht="18.75" customHeight="1"/>
-    <row r="905" ht="18.75" customHeight="1"/>
-    <row r="906" ht="18.75" customHeight="1"/>
-    <row r="907" ht="18.75" customHeight="1"/>
-    <row r="908" ht="18.75" customHeight="1"/>
-    <row r="909" ht="18.75" customHeight="1"/>
-    <row r="910" ht="18.75" customHeight="1"/>
-    <row r="911" ht="18.75" customHeight="1"/>
-    <row r="912" ht="18.75" customHeight="1"/>
-    <row r="913" ht="18.75" customHeight="1"/>
-    <row r="914" ht="18.75" customHeight="1"/>
-    <row r="915" ht="18.75" customHeight="1"/>
-    <row r="916" ht="18.75" customHeight="1"/>
-    <row r="917" ht="18.75" customHeight="1"/>
-    <row r="918" ht="18.75" customHeight="1"/>
-    <row r="919" ht="18.75" customHeight="1"/>
-    <row r="920" ht="18.75" customHeight="1"/>
-    <row r="921" ht="18.75" customHeight="1"/>
-    <row r="922" ht="18.75" customHeight="1"/>
-    <row r="923" ht="18.75" customHeight="1"/>
-    <row r="924" ht="18.75" customHeight="1"/>
-    <row r="925" ht="18.75" customHeight="1"/>
-    <row r="926" ht="18.75" customHeight="1"/>
-    <row r="927" ht="18.75" customHeight="1"/>
-    <row r="928" ht="18.75" customHeight="1"/>
-    <row r="929" ht="18.75" customHeight="1"/>
-    <row r="930" ht="18.75" customHeight="1"/>
-    <row r="931" ht="18.75" customHeight="1"/>
-    <row r="932" ht="18.75" customHeight="1"/>
-    <row r="933" ht="18.75" customHeight="1"/>
-    <row r="934" ht="18.75" customHeight="1"/>
-    <row r="935" ht="18.75" customHeight="1"/>
-    <row r="936" ht="18.75" customHeight="1"/>
-    <row r="937" ht="18.75" customHeight="1"/>
-    <row r="938" ht="18.75" customHeight="1"/>
-    <row r="939" ht="18.75" customHeight="1"/>
-    <row r="940" ht="18.75" customHeight="1"/>
-    <row r="941" ht="18.75" customHeight="1"/>
-    <row r="942" ht="18.75" customHeight="1"/>
-    <row r="943" ht="18.75" customHeight="1"/>
-    <row r="944" ht="18.75" customHeight="1"/>
-    <row r="945" ht="18.75" customHeight="1"/>
-    <row r="946" ht="18.75" customHeight="1"/>
-    <row r="947" ht="18.75" customHeight="1"/>
-    <row r="948" ht="18.75" customHeight="1"/>
-    <row r="949" ht="18.75" customHeight="1"/>
-    <row r="950" ht="18.75" customHeight="1"/>
-    <row r="951" ht="18.75" customHeight="1"/>
-    <row r="952" ht="18.75" customHeight="1"/>
-    <row r="953" ht="18.75" customHeight="1"/>
-    <row r="954" ht="18.75" customHeight="1"/>
-    <row r="955" ht="18.75" customHeight="1"/>
-    <row r="956" ht="18.75" customHeight="1"/>
-    <row r="957" ht="18.75" customHeight="1"/>
-    <row r="958" ht="18.75" customHeight="1"/>
-    <row r="959" ht="18.75" customHeight="1"/>
-    <row r="960" ht="18.75" customHeight="1"/>
-    <row r="961" ht="18.75" customHeight="1"/>
-    <row r="962" ht="18.75" customHeight="1"/>
-    <row r="963" ht="18.75" customHeight="1"/>
-    <row r="964" ht="18.75" customHeight="1"/>
-    <row r="965" ht="18.75" customHeight="1"/>
-    <row r="966" ht="18.75" customHeight="1"/>
-    <row r="967" ht="18.75" customHeight="1"/>
-    <row r="968" ht="18.75" customHeight="1"/>
-    <row r="969" ht="18.75" customHeight="1"/>
-    <row r="970" ht="18.75" customHeight="1"/>
-    <row r="971" ht="18.75" customHeight="1"/>
-    <row r="972" ht="18.75" customHeight="1"/>
-    <row r="973" ht="18.75" customHeight="1"/>
-    <row r="974" ht="18.75" customHeight="1"/>
-    <row r="975" ht="18.75" customHeight="1"/>
-    <row r="976" ht="18.75" customHeight="1"/>
-    <row r="977" ht="18.75" customHeight="1"/>
-    <row r="978" ht="18.75" customHeight="1"/>
-    <row r="979" ht="18.75" customHeight="1"/>
-    <row r="980" ht="18.75" customHeight="1"/>
-    <row r="981" ht="18.75" customHeight="1"/>
-    <row r="982" ht="18.75" customHeight="1"/>
-    <row r="983" ht="18.75" customHeight="1"/>
-    <row r="984" ht="18.75" customHeight="1"/>
-    <row r="985" ht="18.75" customHeight="1"/>
-    <row r="986" ht="18.75" customHeight="1"/>
-    <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
-    <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="261" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>